--- a/data/문정동웨딩홀.xlsx
+++ b/data/문정동웨딩홀.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\opencv\photobooth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E655EA4-8D74-45F6-99C2-61195F236894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4EA9A3-FBE2-4212-9874-78CFD0E462B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,15 +51,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문정웨딩홀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>static/template/mj/main.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>template</t>
+    <t>capture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web/static/template/mj/special_nav_photo.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web/static/template/mj/special_bug_photo.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/template/mj/banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,504,557,388|643,504,557,388|46,910,557,388|643,910,557,388|46,1316,557,388|643,1316,557,388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,539,733,512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose_movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web/static/template/mj/special_nav_movie.png</t>
+  </si>
+  <si>
+    <t>web/static/template/mj/special_nav_movie.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,8 +197,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,41 +518,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCD49D9-6D34-4CF3-925D-D6021CC18AD9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E8E1D4-C47F-4549-8199-A48A9D45947B}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8042B3A1-3A1D-4615-8BC8-8780225E4426}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/문정동웨딩홀.xlsx
+++ b/data/문정동웨딩홀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\opencv\photobooth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4EA9A3-FBE2-4212-9874-78CFD0E462B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0DF5A6-E681-42AD-AEED-ABF8B10C564C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
+    <workbookView xWindow="-7280" yWindow="-18780" windowWidth="28800" windowHeight="15500" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web/static/template/mj/special_bug_photo.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>static/template/mj/banner.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,18 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문정웨딩홀C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문정웨딩홀B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문정웨딩홀A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +135,18 @@
   </si>
   <si>
     <t>web/static/template/mj/special_nav_movie.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,12 +193,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,28 +519,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCD49D9-6D34-4CF3-925D-D6021CC18AD9}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,42 +554,42 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -602,39 +601,39 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -643,34 +642,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -684,28 +683,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E8E1D4-C47F-4549-8199-A48A9D45947B}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,42 +718,42 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -766,39 +765,39 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -807,34 +806,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -848,27 +847,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +881,42 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -932,36 +931,36 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -970,34 +969,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/문정동웨딩홀.xlsx
+++ b/data/문정동웨딩홀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\opencv\photobooth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0DF5A6-E681-42AD-AEED-ABF8B10C564C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE72D09-5A78-4194-BEBE-6C4A0242D743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7280" yWindow="-18780" windowWidth="28800" windowHeight="15500" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{51701044-363B-4CE5-9409-8B3005DC2562}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>문정웨딩홀C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정웨딩홀A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,27 +532,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,12 +640,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -684,27 +696,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,12 +804,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -847,27 +859,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="96.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -955,12 +967,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
